--- a/v3/table/BuiltinIndex.xlsx
+++ b/v3/table/BuiltinIndex.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+  <si>
+    <t>模式</t>
+  </si>
   <si>
     <t>表类型</t>
-  </si>
-  <si>
-    <t>表名</t>
   </si>
   <si>
     <t>表文件名</t>
@@ -30,6 +30,15 @@
   <si>
     <t>FieldType.xlsx</t>
   </si>
+  <si>
+    <t>键值表</t>
+  </si>
+  <si>
+    <t>ErrorID</t>
+  </si>
+  <si>
+    <t>ErrorID.xlsx</t>
+  </si>
 </sst>
 </file>
 
@@ -37,9 +46,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -69,15 +78,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,99 +136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,11 +152,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,6 +191,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -227,19 +236,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,13 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,13 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,121 +392,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +446,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -451,17 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,11 +501,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,9 +525,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,7 +1027,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="F6 I12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1049,9 +1058,15 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="3"/>

--- a/v3/table/BuiltinIndex.xlsx
+++ b/v3/table/BuiltinIndex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15420"/>
+    <workbookView windowWidth="19095" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -78,14 +78,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,6 +161,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -107,78 +184,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,35 +220,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -236,19 +236,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,19 +380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,139 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +445,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,43 +522,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,17 +1024,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
@@ -1193,11 +1193,6 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" ht="16.5" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
